--- a/src/main/webapp/assets/exceltpl/inventoryqcform.xlsx
+++ b/src/main/webapp/assets/exceltpl/inventoryqcform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26704" windowHeight="11748"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="workregionm" sheetId="1" r:id="rId1"/>
@@ -74,13 +74,13 @@
 </t>
   </si>
   <si>
-    <t>存货编码</t>
+    <t>*存货编码</t>
   </si>
   <si>
-    <t>检验表格名称</t>
+    <t>*检验表格名称</t>
   </si>
   <si>
-    <t>检验类型</t>
+    <t>*检验类型</t>
   </si>
 </sst>
 </file>
@@ -1066,13 +1066,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81578947368421" defaultRowHeight="12.8" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="18.5438596491228" customWidth="1"/>
-    <col min="3" max="3" width="17.359649122807" customWidth="1"/>
+    <col min="1" max="2" width="18.5462962962963" customWidth="1"/>
+    <col min="3" max="3" width="17.3611111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
